--- a/data/train.xlsx
+++ b/data/train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JospehShen\XunTa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF0400-A643-4EA2-9B8B-DBBACF3A00F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C93CF2-D3B9-45BF-88B3-96613EB68EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26205" yWindow="5835" windowWidth="23160" windowHeight="10005" xr2:uid="{4282F246-0BC3-4B10-986F-4C9AB594F73B}"/>
+    <workbookView xWindow="-28920" yWindow="1050" windowWidth="29040" windowHeight="15840" xr2:uid="{4282F246-0BC3-4B10-986F-4C9AB594F73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
   <si>
     <t>Colleague</t>
   </si>
@@ -91,11 +91,6 @@
     <t>Why product matching?</t>
   </si>
   <si>
-    <t xml:space="preserve">Externally, we can make better pricing strategy to attract customers and improve their repeat engagment rate in 7-day period.
-This model will also allow customers to look for more affordable alternatives to pricer products.
-Interally, we can better identify duplicates in our database. For example, the same product from difference manufactures might exist in two places. </t>
-  </si>
-  <si>
     <t>How to define the metrics?</t>
   </si>
   <si>
@@ -113,20 +108,569 @@
 For this problem, I am going to choose the first route because the confidence interval for whether they're the same product are quite high.</t>
   </si>
   <si>
-    <t>Classification problem metrics
+    <t xml:space="preserve">Externally, we can make better pricing strategy to attract customers and improve their repeat engagment rate in 7-day period.
+This model will also allow customers to look for more affordable alternatives to pricer products.
+Interally, we can better identify duplicates in our database. For example, the same product from different manufactures might exist in two places. </t>
+  </si>
+  <si>
+    <t>How to preprocess text features?</t>
+  </si>
+  <si>
+    <t>tf-idf for text preprocessing.
+(1) Potential follow up: it's sparse</t>
+  </si>
+  <si>
+    <t>How to constitute a training data set?</t>
+  </si>
+  <si>
+    <t>What can kind of features you can have?</t>
+  </si>
+  <si>
+    <t>For statistical metrics,
+Classification problem metrics
 (1) Confusion matrix and F score for each category
 (2) AUC score
-(3) False positive-threshold</t>
+(3) False positive-threshold
+For business metrics,
+(1) Add-to-cart
+(2) Conversion
+(3) Return</t>
+  </si>
+  <si>
+    <t>What models you choose and why?</t>
+  </si>
+  <si>
+    <t>What are parameters you will tune for this model?</t>
+  </si>
+  <si>
+    <t>Content related:
+(1) Texture
+(2) Color
+(3) Weight
+(4) Image
+(5) Text description
+Busines related
+(1) Price
+(2) Manufacture
+(3) Bar code</t>
+  </si>
+  <si>
+    <t>(1) Number of trees
+(2) Number of features
+(3) Depth of trees</t>
+  </si>
+  <si>
+    <t>I will choose to pick random forests because I want to have a high accuracy. Random forest works
+well with categorical variables and outliers. I also want to get some interpretable model insights
+via partial indepence and vairbale importance plots.</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>What are you working at aware?</t>
+  </si>
+  <si>
+    <t>Walk me through a recent project you're working on?</t>
+  </si>
+  <si>
+    <t>As a data scientist, I help our customers to spotlight their employees' behavior patterns and gain platform insights on social collaboration tools such as Slack, Teams and Yammer and Facebook workplace. More sepcifically, I continuously develop and implement NLP models and computer vision models to detect networks' sentiment, toxicity level,trending topics and sensitive information like code snippet. I also build platform insights dashboard to showcase customers' login patterns, edge cases of our deployed models, and alert anomaly behaviors in our network.</t>
+  </si>
+  <si>
+    <t>What questions do you have for me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)How small world graph and approxiate nearest neighbour is embedding in wayfair's recommendation system? Do you guys use open source library such as non-metrics space library or build your own?
+(2)How data scientists' performance is evaluated at Wayfair? </t>
+  </si>
+  <si>
+    <t>Currently, I am working on refreshing our version three toxicspeech model.This model provide our customer how inappropriate conversations are on their networks. I use our data sharing customers' conversations and leverage external data sets like twitter, hatebase and wiki discussion for training. I used appen for label worker training and labeling, develop deep learning neural networks for modeling and microservice APIs for hosting and deploying.
+For sampling and data aggregation part, I reduce this problem into a text classification problem and define four categories: health, inappropriate, offensive and hate.
+For modeling part, I designed three major layers. A customed word2vec embedding layer, a standard lstm layer and a fully connected layer.
+For evaluation part, I used softmax cross entrophy as loss function and F metrics as evaluation metrics.</t>
+  </si>
+  <si>
+    <t>How do you collaborate with peers?</t>
+  </si>
+  <si>
+    <t>(S)Our product managers and product engineers are trying to help our customers understand 
+conversational context around a topic, but they are uncertain about angles to cut in.
+(T)As a data scientist, I very motivated to figure out what's the MVP model I can build to tackle
+this problem and define a problem align with our company's long-term roadmap which is building a knowledge base understanding digiral conversation.
+(A)I first constrain the scope of problem from understanding conversations of customers to building a model returning top questions related to a topic. I do this because I think questions will be a goox proxy for main themes of a conversation, also extracting question itself can be a 
+valuable mini model applied in other domins. I then visualize the solution with our product designers with small ui demo and sample API requests and responses with engineers. After that I start to build an daily ETL pipeline t.o quickly sample, extract and cluster questions for different customers.
+(R)Currently, our PMs can investigate daily question topics by industries and by platforms based on my work. I also successfully shrink the problem space into seven high frequent topics we want to further build models on</t>
+  </si>
+  <si>
+    <t>Why wayfair?</t>
+  </si>
+  <si>
+    <t>Interested in consumer behavior in E-commerce industry.
+I want to accumulate my expertise in the area of personalization and recommendation and wayfair has a strong team for this.
+I want to move to Boston.</t>
+  </si>
+  <si>
+    <t>How to do it without manual labeling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)Human feedback loop
+(2)Semi supervised learning and </t>
+  </si>
+  <si>
+    <t>For positive cases, we can pull down data from the same category such as Sofa category. They have high probability to be matched products. Then we can train a mini-model on those data.
+We then use that model to bootstrap and find more similar matched products in our datalake.
+We then use some label platform such as AWS to label the data.
+For negative cases, we selected random pairs of products for each product type. We should do 
+stratify sampling to make sure our trainig data adjust for the number of each product type so that we can generalize our model to Wayfair's entire catlog.</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>How to solve the scalability issue when we want to compare 
+products in our database to products in our competitors' database?</t>
+  </si>
+  <si>
+    <t>(1) Compare with product in the same category O(n*n) --&gt; O(n*c)
+(2) Use visual image and nearest neighbours to return O(n*c) --&gt; O(n*10)</t>
+  </si>
+  <si>
+    <t>What biases could be made when random sample products from the 
+same category as positive cases?</t>
+  </si>
+  <si>
+    <t>Products under the different category can be the same product.</t>
+  </si>
+  <si>
+    <t>Chewy</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>The team wants to invest $1 million in a direct mail program. 
+They've never done direct mail before. What do you recommend for the short term and the long term?  </t>
+  </si>
+  <si>
+    <t>Gaurav Saxena</t>
+  </si>
+  <si>
+    <t>What is bias and variance tradeoff?</t>
+  </si>
+  <si>
+    <t>Walk me through a recent marketing campain project you're working
+on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(S)Our marketing team to find below-average users of our prodcut for an campain. 
+(T) As a data scientist, I used my expertise in unsupervised learning to help them finish custoemer segmentation. 
+(A)I am using behavioral data such as search_counts, login_counts, alert_counts, 
+number of polices made to do clustering analysis. I found the number of clusters, identified the customer segmentation and discovered the 'below-average' audience for our marketing team.
+(R)I helped marketing team to customize the email content for teaching customers how to set up monitoring policies in our new launching modules and making strategy to increase conversions from Email.</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think for short term, I will support the retention and growth of immediate revenue
+streams. Long-term investements should focus on brand or innovation. I will allocate 5% budget to a pilot marketing camapagin, 80% budget to short-term mail and 15% to long-term mail.
+The typical response rate for direct mail marketing is 2-3%. I will identify sublists which have a higher likelihood to respond for short-term conversion.
+I will uniformly send out direct mails to other groups with customized discounting strategy using their demographic infomation such as gender, job and their location.
+</t>
+  </si>
+  <si>
+    <t>Error terms can be decomposed into bias, variance and irreductible error. If a model is too complicates, it will reduce the bias in the training dataset but it will cause overfitting.  If a model is too simple, it might be undertraining and introduces a lot of bias in predictions.</t>
+  </si>
+  <si>
+    <t>Why chewy?</t>
+  </si>
+  <si>
+    <t>Interested in consumer behavior in E-commerce industry.
+I want to accumulate my expertise in the area of personalization and customizatioin of marketing.I want to move to Boston.</t>
+  </si>
+  <si>
+    <t>How to calculate sample size?</t>
+  </si>
+  <si>
+    <t>How to perform a t-test?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-test can be used for 
+(1) Comparing means between two different groups
+(2) Test the mean of a group to a known mean
+(3) Test means from the sample group at different time
+t-score is the ratio of difference between groupds to difference within groups.
+We 
+(1) determine the null and alternative hypothesis
+(2) collect sample data
+(3) alpha level and degress of freedom
+(4) calculate t-score and its corresponding probability    </t>
+  </si>
+  <si>
+    <t>nsample = poweranalysis(alpha, beta, cohen's d, standard deviation)
+n = ((Z(1-alpha/2) - Z(1-beta))/effectsize)^2</t>
+  </si>
+  <si>
+    <t>What's the marketing uplifting model?</t>
+  </si>
+  <si>
+    <t>How to find superuser?</t>
+  </si>
+  <si>
+    <t>The uplifting model defined as the difference between a treated group and a control group.
+It measures the effectiveness of a makreting action.</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>Use anomaly detection.</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>What are Distributions of X and Y?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X and Y are uniform random variables on the interval from [0,1]. </t>
+  </si>
+  <si>
+    <t>3 random variables i.i.d from a uniform distribution 0 to 2, 
+what is the probability that the median is &gt; 1.5?</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>In order to median is &gt; 1.5. Then at least two numbers are larger than 1.5 amd at most one number is smaller than 1.5. Probability of two numbers are larger than 1.5 are (0.25**2) and probability of one number which is smaller than 1.5 is 0.75. 
+(c32)*0.75*(0.25)**2</t>
+  </si>
+  <si>
+    <t>Why radius is not important in monte carlo siumation to calculate pi?</t>
+  </si>
+  <si>
+    <t>They're deleted in divide operation when divinbg spaces of circles and rectangles.</t>
+  </si>
+  <si>
+    <t>What are time and space complexity of monto carlo simulation pi?</t>
+  </si>
+  <si>
+    <t>T:O(n) S:O(1)
+T:O(1) S:O(n)</t>
+  </si>
+  <si>
+    <t>What's the impact of increasing n to the STD of estimatd PI?</t>
+  </si>
+  <si>
+    <t>According to the central limit theorem, when n increases, the sample mean will close to the population mean and the sample standard deviation will be close to 1/sqrt(n) of population standard deviation</t>
+  </si>
+  <si>
+    <t>Why important to business using a recommender system in email marketing?</t>
+  </si>
+  <si>
+    <t>What KPIs are important in this recommendation system?</t>
+  </si>
+  <si>
+    <t>What feature set in email marketing recommendation system?</t>
+  </si>
+  <si>
+    <t>How do you evaluate your email marketing recommendation system?</t>
+  </si>
+  <si>
+    <t>How do you deal with the imbalance data set?</t>
+  </si>
+  <si>
+    <t>Increase people's purchasing rate by sending them customized products and events they like.</t>
+  </si>
+  <si>
+    <t>Features:
+(Userid: Gender, Geographic, Age, 
+(Itemid:Color, material, style,
+(EmailMetaData: Hour, Weekdays
+(BehaviroalMetrics: Source, Past click through rate, Past_Purchases)</t>
+  </si>
+  <si>
+    <t>Tell me a project that you brought in improvement and what's the lift?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you failed the expectation from your manager, how did you re-gain trust?</t>
+  </si>
+  <si>
+    <t>Oversampling
+Undersampling
+Customized Loss Function</t>
+  </si>
+  <si>
+    <t>Explain neural network to a PM?</t>
+  </si>
+  <si>
+    <t>Write a sqrt fucntion using binary search?</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <r>
+      <t>(Situation)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>My last project required me to cu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t the labeling cost by at least 30% and in the meantime increased the performance of text classifciation model.
+ I used error  analysis to find all messaged that are not correclt scored in our previous model version.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This enabled me to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allocate my resources better and focus my energy on edge cases. I then leveaged  back translation technique as a way to augment our training data size.  This method helped me to send less messages for workers to label while increasing and rebalancing  our training data set. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">With those apporaches, I was able to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">increase our F-score nearly by 10% on all categories of our classification tasks. Also I encapsualted back translation function so that our team members can call them conveniently when facing with similar problems and documented my different experimental results using different languages to do back translation so that we can go directly to the optimial intermediate lanuage in the next time.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>What type of model will you use and how you train them?</t>
+  </si>
+  <si>
+    <t>To more engaged customers, we will use content-base model and collaborative filtering to
+recommend  content that is most related to products they're browsing on the website
+-  Model architerctures will be (Marketing content embeddings layer + User embeddings layer(contanente them together) and pass them into dense layer and then output)
+- Model([input_users, input_contents],[click_through_probability])  
+To less engaged customers, we will use contextual multi-armed bandit(MAB) models to generate content for different customer segments
+(Number of bandits, Pay_off functions, Number of iterations)
+(Epilson greedy-only explore among certain probability)</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Walk me through the toxicspeech model you're working on?</t>
+  </si>
+  <si>
+    <t>Walk me through the screenshot detection model you're working on?</t>
+  </si>
+  <si>
+    <t>Walk me through the threadtopic model you're working on?</t>
+  </si>
+  <si>
+    <t>Walk me through the keyword extraction model you're working on?</t>
+  </si>
+  <si>
+    <t>Walk me through the PlatformInsights dashboard you're building?</t>
+  </si>
+  <si>
+    <t>Walk me through the AB-testing project you're working on?</t>
+  </si>
+  <si>
+    <t>Walk me through the Cornell Capstone Project?</t>
+  </si>
+  <si>
+    <t>The screenshot detect determines whether an image is a software screenshot. The purpose of this model is to support our products' monitoring module so that our customers can create policies and rules to effectively filter out all sensitive information.
+For the data part, I leveraged Microsoft Bing Image Search API and openimage search to constitute training data sets. I also used stratify sampling to cover different categories.
+For the modeling part, I used resNet18 architercture. The relative small architercture allows me to keep prediction time low while maintaining sufficient accuracy.
+For the evaluation part, I used F-score and False discover rate as the main metrics. 
+I served the model as a sagemaker endpoint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural network is a kind of deep learning algorithm. It is inspried by human neural systems.
+</t>
+  </si>
+  <si>
+    <t>Ideal case is to do online AB-testing to compare click thourgh probability with and without my
+designed recommendation system.
+Offline test
+Metrics: Cumulative Gain</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email In General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Open Rate
+Click Through Rate/Click through probability
+Conversion rate
+Bounce rate
+Number of unsubscribes
+Number of sharing
+Increatmental revenue
+Total spent using on email marketing
+Click through probability in the most important KPI
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Last year, I was assigned a task on how to develop a model helping our customers understand
+a trendening topic better. For example, COVID. I proposed a solution developing a question model XXX. I quickly built a ETL pipeline, sampling-extract-do clustering analysis and wrote 
+a proposal document on time and budget estimate. It turned out to be my time and difficulty estimate is way off.
+When I dig deep into (1)
+We ended up XXX
+Lessons:
+(1) Don't assume
+(2) Don't influenced by your previous 
+(3)Hammer
+I documented my experimental results and finding. I actively communicated with my managers what I have learnt. I also encapsulated my refined question extractor so that can be
+used as a tool to extarct features.</t>
+  </si>
+  <si>
+    <t>The threadtopic model helps our customers to understand what's trending topics on their network, so that they can mitigate risks on their collaboration space.
+I trained model on 2,000,000 docustments on 100,000 features and ten topics.
+I used the prelexity and coherent score as the main evaluitation metrics to select the models and visualize with intertopic distance map. 
+The model is evaluated on labeler-model consistency as a final evalutation and the final rate is about 67%.
+I ended up discovering different platforms have different focuing topics, for example slack more on logistics and Teams more technical stuff and compensation.</t>
+  </si>
+  <si>
+    <t>How you solved a problem in a unique way and how you used data?</t>
+  </si>
+  <si>
+    <t>What's your role in the team and tell me about a time you had a difficult client and how you
+overcome it?(Communcation, persuasion(get-buyin), failure, priortize, team building(keep every one in the loop))</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/how-to-a-b-test-without-spending-a-dime-60c4112f8f4e</t>
+  </si>
+  <si>
+    <t>How do you deal with conflicts?</t>
+  </si>
+  <si>
+    <t>How do you deal with failure?</t>
+  </si>
+  <si>
+    <t>Recently I was concerned with a decision on how we're going to showcase our labeling interface to our verndors. My team thought we should just adopt XXX and I disagreed. I thought we should
+build a customized XX so that our labelers can have a beter experience and inhance our data quality.
+I spoke with each of decision holders, my manager, data scientist and engineers. I listened actively and try to understand XXX. I then persented the data in a later meeting focusing on the 
+conversation instead of convincing them. I mainly introduced in order to XXX, what kind of template we can use, what's the time estimate and why a good interface is crucial to data quality.
+We ended up making a fruitful decision XXX.</t>
+  </si>
+  <si>
+    <t>QA project
+Off in the time and difficulty estimate. We shifted XX to using simple heuristic rules XXX
+(1) didn't factor in data imbalanced
+(2) I should have done more to discover
+(3) Frame every problem as a machine learning problem 
+(1) question extractor
+(2) document the question count in main customers</t>
+  </si>
+  <si>
+    <t>Goushou: Organizational Health/Toxicity</t>
+  </si>
+  <si>
+    <t>I am recently responsible for leveraging machine learning capbilities in anomaly detection in  our products' monitoring module. I first organzied a meeting with our product and customer sucess teams discussing questions on:
+Why are we doing this and what's the impact of this problem?
+How do we judge success?
+What are the possible soultions?
+I first pointed out tenant-level daily metrics are difficult for our customers to get and without it they will feel difficult to identify anomaly behavior on they collaboration network. 
+I proposed two solutions one is some smart alerting tools and the other is dashboard reporting for us to tackle this problem. In order to further get buy-in from product team, I visualize two solutions with lucid chart to illustrate the potential solution more vividly. 
+I also communicated with our engineering team what's the computation cost to do a daily historical scan on all the tenants we have. I clearly drafted a resultful api design document on my proposed request and respone with illustrative examples.
+I assisted my interns to set up his airflow ETL pipeline and provided guidence on how to build a query on aggregate daily metrics on different tenants. 
+I ended up building a smart slack-bot alerting tenants with anomaly behavioral actions metrics and deploy it to production for internal monitoring. After deployment, our data infrastructure team quickly use them to detect a huge data ingestion failure at night. Our customer success team also become able to provide one education demonstration to one of customers since we found numbers of use on one module dropped dramatically for one week.
+organzied, I visualized 
+I assisted interns, provided feedback
+I communicated with engineers daily scan, required import and output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,17 +692,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,228 +1056,1664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEBE45F-825A-4231-A4BD-92C92904E882}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" customWidth="1"/>
     <col min="4" max="4" width="83.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D52" r:id="rId1" xr:uid="{ACF967B4-D2AF-45BA-974A-CB5B44736F65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>